--- a/NMVS/uploads/SPL01_Supplier List.xlsx
+++ b/NMVS/uploads/SPL01_Supplier List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/276815161ec3e88f/Working Space/Netmarks/Aica/Aica Docs/AICA002_Supplier upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="10_ncr:80_{5B17F8B0-3876-4BA5-ACEF-9A8EFC8B0A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D705450B-56D7-4F30-993F-D6CC3512C3B4}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="10_ncr:80_{5B17F8B0-3876-4BA5-ACEF-9A8EFC8B0A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{588AA985-5A08-47E6-A454-9DFC26B20DE2}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="855" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2835" yWindow="2715" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="277">
   <si>
     <t>Document No.: CTM01</t>
   </si>
@@ -495,9 +495,6 @@
   </si>
   <si>
     <t>vend-06</t>
-  </si>
-  <si>
-    <t>vend-07</t>
   </si>
   <si>
     <t>vend-08</t>
@@ -1035,12 +1032,6 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="top"/>
     </xf>
@@ -1055,6 +1046,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1469,8 +1466,8 @@
   </sheetPr>
   <dimension ref="A1:K1237"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1487,19 +1484,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -1543,7 +1540,7 @@
       <c r="B3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -1578,7 +1575,7 @@
       <c r="B4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="6"/>
@@ -1597,7 +1594,7 @@
       <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="6"/>
@@ -1616,7 +1613,7 @@
       <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="6"/>
@@ -1635,7 +1632,7 @@
       <c r="B7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="6"/>
@@ -1654,7 +1651,7 @@
       <c r="B8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="6"/>
@@ -1673,7 +1670,7 @@
       <c r="B9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="6"/>
@@ -1686,13 +1683,11 @@
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>156</v>
-      </c>
+      <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="6"/>
@@ -1706,12 +1701,12 @@
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="6"/>
@@ -1725,12 +1720,12 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="6"/>
@@ -1744,1310 +1739,1310 @@
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="12" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B22" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B23" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B24" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B25" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B27" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B28" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="12" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B29" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B30" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B31" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B32" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B33" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="13" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B34" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="13" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B35" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B36" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B37" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B38" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B39" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B40" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B41" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B42" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B43" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B44" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B45" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B46" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B47" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B48" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B49" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B50" t="s">
         <v>68</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B51" t="s">
         <v>69</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B52" t="s">
         <v>70</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B53" t="s">
         <v>71</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B54" t="s">
         <v>72</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B55" t="s">
         <v>73</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B56" t="s">
         <v>74</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B57" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B58" t="s">
         <v>76</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B59" t="s">
         <v>77</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B60" t="s">
         <v>78</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B61" t="s">
         <v>79</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B62" t="s">
         <v>80</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B63" t="s">
         <v>81</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B64" t="s">
         <v>82</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B65" t="s">
         <v>83</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B66" t="s">
         <v>84</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B67" t="s">
         <v>85</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B68" t="s">
         <v>86</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C68" s="9" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B69" t="s">
         <v>87</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B70" t="s">
         <v>88</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C70" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B71" t="s">
         <v>89</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B72" t="s">
         <v>90</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="9" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B73" t="s">
         <v>91</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C73" s="9" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B74" t="s">
         <v>92</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="9" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B75" t="s">
         <v>93</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C75" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B76" t="s">
         <v>94</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C76" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B77" t="s">
         <v>95</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C77" s="9" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B78" t="s">
         <v>96</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C78" s="9" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B79" t="s">
         <v>97</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C79" s="9" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B80" t="s">
         <v>98</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C80" s="9" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B81" t="s">
         <v>99</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C81" s="9" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B82" t="s">
         <v>100</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C82" s="9" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B83" t="s">
         <v>101</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C83" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B84" t="s">
         <v>102</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C84" s="9" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B85" t="s">
         <v>103</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C85" s="9" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B86" t="s">
         <v>104</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C86" s="9" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B87" t="s">
         <v>105</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C87" s="9" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B88" t="s">
         <v>106</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C88" s="9" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B89" t="s">
         <v>107</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C89" s="9" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B90" t="s">
         <v>108</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C90" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B91" t="s">
         <v>109</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C91" s="9" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B92" t="s">
         <v>110</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="C92" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B93" t="s">
         <v>111</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C93" s="9" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B94" t="s">
         <v>112</v>
       </c>
-      <c r="C94" s="11" t="s">
+      <c r="C94" s="9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B95" t="s">
         <v>113</v>
       </c>
-      <c r="C95" s="11" t="s">
+      <c r="C95" s="9" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B96" t="s">
         <v>114</v>
       </c>
-      <c r="C96" s="11" t="s">
+      <c r="C96" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B97" t="s">
         <v>115</v>
       </c>
-      <c r="C97" s="11" t="s">
+      <c r="C97" s="9" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B98" t="s">
         <v>116</v>
       </c>
-      <c r="C98" s="11" t="s">
+      <c r="C98" s="9" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B99" t="s">
         <v>117</v>
       </c>
-      <c r="C99" s="11" t="s">
+      <c r="C99" s="9" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B100" t="s">
         <v>118</v>
       </c>
-      <c r="C100" s="11" t="s">
+      <c r="C100" s="9" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B101" t="s">
         <v>119</v>
       </c>
-      <c r="C101" s="11" t="s">
+      <c r="C101" s="9" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B102" t="s">
         <v>120</v>
       </c>
-      <c r="C102" s="11" t="s">
+      <c r="C102" s="9" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B103" t="s">
         <v>121</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="C103" s="9" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B104" t="s">
         <v>122</v>
       </c>
-      <c r="C104" s="11" t="s">
+      <c r="C104" s="9" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B105" t="s">
         <v>123</v>
       </c>
-      <c r="C105" s="11" t="s">
+      <c r="C105" s="9" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B106" t="s">
         <v>124</v>
       </c>
-      <c r="C106" s="11" t="s">
+      <c r="C106" s="9" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B107" t="s">
         <v>125</v>
       </c>
-      <c r="C107" s="11" t="s">
+      <c r="C107" s="9" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B108" t="s">
         <v>126</v>
       </c>
-      <c r="C108" s="11" t="s">
+      <c r="C108" s="9" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B109" t="s">
         <v>127</v>
       </c>
-      <c r="C109" s="11" t="s">
+      <c r="C109" s="9" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B110" t="s">
         <v>128</v>
       </c>
-      <c r="C110" s="11" t="s">
+      <c r="C110" s="9" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B111" t="s">
         <v>129</v>
       </c>
-      <c r="C111" s="11" t="s">
+      <c r="C111" s="9" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B112" t="s">
         <v>130</v>
       </c>
-      <c r="C112" s="11" t="s">
+      <c r="C112" s="9" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B113" t="s">
         <v>131</v>
       </c>
-      <c r="C113" s="11" t="s">
+      <c r="C113" s="9" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B114" t="s">
         <v>132</v>
       </c>
-      <c r="C114" s="11" t="s">
+      <c r="C114" s="9" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B115" t="s">
         <v>133</v>
       </c>
-      <c r="C115" s="11" t="s">
+      <c r="C115" s="9" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B116" t="s">
         <v>134</v>
       </c>
-      <c r="C116" s="11" t="s">
+      <c r="C116" s="9" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B117" t="s">
         <v>135</v>
       </c>
-      <c r="C117" s="11" t="s">
+      <c r="C117" s="9" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B118" t="s">
         <v>136</v>
       </c>
-      <c r="C118" s="11" t="s">
+      <c r="C118" s="9" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B119" t="s">
         <v>137</v>
       </c>
-      <c r="C119" s="11" t="s">
+      <c r="C119" s="9" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B120" t="s">
         <v>138</v>
       </c>
-      <c r="C120" s="11" t="s">
+      <c r="C120" s="9" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B121" t="s">
         <v>139</v>
       </c>
-      <c r="C121" s="11" t="s">
+      <c r="C121" s="9" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B122" t="s">
         <v>140</v>
       </c>
-      <c r="C122" s="11" t="s">
+      <c r="C122" s="9" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B123" t="s">
         <v>141</v>
       </c>
-      <c r="C123" s="11" t="s">
+      <c r="C123" s="9" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B124" t="s">
         <v>142</v>
       </c>
-      <c r="C124" s="11" t="s">
+      <c r="C124" s="9" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B125" t="s">
         <v>143</v>
       </c>
-      <c r="C125" s="11" t="s">
+      <c r="C125" s="9" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B126" t="s">
         <v>144</v>
       </c>
-      <c r="C126" s="11" t="s">
+      <c r="C126" s="9" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B127" t="s">
         <v>145</v>
       </c>
-      <c r="C127" s="11" t="s">
+      <c r="C127" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B128" t="s">
         <v>146</v>
       </c>
-      <c r="C128" s="11" t="s">
+      <c r="C128" s="9" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B129" t="s">
         <v>147</v>
       </c>
-      <c r="C129" s="11" t="s">
+      <c r="C129" s="9" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B130" t="s">
         <v>148</v>
       </c>
-      <c r="C130" s="11" t="s">
+      <c r="C130" s="9" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B131" t="s">
         <v>149</v>
       </c>
-      <c r="C131" s="11" t="s">
+      <c r="C131" s="9" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3124,7 +3119,7 @@
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="A2:G12" xr:uid="{6BDCC892-7C09-4487-A35B-397CEE9D73EB}"/>
+      <autoFilter ref="A2:G12" xr:uid="{6FD20D13-65AA-4734-A030-D2813FBBB5D7}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">

--- a/NMVS/uploads/SPL01_Supplier List.xlsx
+++ b/NMVS/uploads/SPL01_Supplier List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="29" documentId="10_ncr:80_{5B17F8B0-3876-4BA5-ACEF-9A8EFC8B0A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{588AA985-5A08-47E6-A454-9DFC26B20DE2}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="2715" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1466,8 +1466,8 @@
   </sheetPr>
   <dimension ref="A1:K1237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3119,7 +3119,7 @@
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="A2:G12" xr:uid="{6FD20D13-65AA-4734-A030-D2813FBBB5D7}"/>
+      <autoFilter ref="A2:G12" xr:uid="{FDF80C69-0530-441B-9DE8-C0E6BF79AB4B}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">

--- a/NMVS/uploads/SPL01_Supplier List.xlsx
+++ b/NMVS/uploads/SPL01_Supplier List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/276815161ec3e88f/Working Space/Netmarks/Aica/Aica Docs/AICA002_Supplier upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="10_ncr:80_{5B17F8B0-3876-4BA5-ACEF-9A8EFC8B0A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{588AA985-5A08-47E6-A454-9DFC26B20DE2}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="10_ncr:80_{5B17F8B0-3876-4BA5-ACEF-9A8EFC8B0A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0789E5BE-A922-924C-B376-63B6477D0C07}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3520" yWindow="3520" windowWidth="21600" windowHeight="11300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="278">
   <si>
     <t>Document No.: CTM01</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Some note here</t>
   </si>
   <si>
-    <t>1-1-1001-01</t>
-  </si>
-  <si>
     <t>Supplier code</t>
   </si>
   <si>
@@ -858,6 +855,12 @@
   </si>
   <si>
     <t>vend-128</t>
+  </si>
+  <si>
+    <t>vend-07</t>
+  </si>
+  <si>
+    <t>vend-00</t>
   </si>
 </sst>
 </file>
@@ -1466,24 +1469,24 @@
   </sheetPr>
   <dimension ref="A1:K1237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.83203125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" customWidth="1"/>
+    <col min="11" max="11" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="20" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1498,12 +1501,12 @@
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>1</v>
@@ -1533,15 +1536,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>18</v>
+        <v>277</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>10</v>
@@ -1568,15 +1571,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1587,15 +1590,15 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -1606,15 +1609,15 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -1625,15 +1628,15 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -1644,15 +1647,15 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -1663,15 +1666,15 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -1682,13 +1685,15 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
+    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>276</v>
+      </c>
       <c r="B10" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -1699,15 +1704,15 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -1718,15 +1723,15 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -1737,1370 +1742,1370 @@
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+    <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C16" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+    <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C17" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+    <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C18" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+    <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C19" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+    <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C20" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+    <row r="21" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C21" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+    <row r="22" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C22" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+    <row r="23" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C23" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+    <row r="24" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C24" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+    <row r="25" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C25" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+    <row r="26" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C26" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+    <row r="27" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C27" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+    <row r="28" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C28" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+    <row r="29" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C29" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+    <row r="30" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C30" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+    <row r="31" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C31" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+    <row r="32" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C32" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
+    <row r="33" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C33" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+    <row r="34" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C34" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
+    <row r="35" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C35" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
+    <row r="36" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C36" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+    <row r="37" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C37" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
+    <row r="38" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C38" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
+    <row r="39" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C39" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
+    <row r="40" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C40" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
+    <row r="41" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C41" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
+    <row r="42" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C42" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
+    <row r="43" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C43" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
+    <row r="44" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C44" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
+    <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C45" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
+    <row r="46" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C46" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
+    <row r="47" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C47" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
+    <row r="48" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C48" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
+    <row r="49" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C49" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
+    <row r="50" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C50" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
+    <row r="51" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>68</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C51" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
+    <row r="52" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>69</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C52" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
+    <row r="53" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>70</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C53" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
+    <row r="54" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>71</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C54" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
+    <row r="55" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>72</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C55" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="s">
+    <row r="56" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>73</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C56" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
+    <row r="57" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>74</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C57" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="6" t="s">
+    <row r="58" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C58" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="6" t="s">
+    <row r="59" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>76</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C59" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
+    <row r="60" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>77</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C60" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
+    <row r="61" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>78</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C61" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="6" t="s">
+    <row r="62" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>79</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C62" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="s">
+    <row r="63" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>80</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C63" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="6" t="s">
+    <row r="64" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>81</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C64" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="6" t="s">
+    <row r="65" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>82</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C65" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="6" t="s">
+    <row r="66" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>83</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C66" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="6" t="s">
+    <row r="67" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>84</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C67" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="6" t="s">
+    <row r="68" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>85</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C68" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="6" t="s">
+    <row r="69" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>86</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C69" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="6" t="s">
+    <row r="70" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>87</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C70" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="6" t="s">
+    <row r="71" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>88</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C71" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="6" t="s">
+    <row r="72" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>89</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C72" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="6" t="s">
+    <row r="73" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>90</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C73" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="6" t="s">
+    <row r="74" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>91</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C74" s="9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="6" t="s">
+    <row r="75" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>92</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C75" s="9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="6" t="s">
+    <row r="76" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>93</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C76" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="6" t="s">
+    <row r="77" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>94</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C77" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="6" t="s">
+    <row r="78" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>95</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C78" s="9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="6" t="s">
+    <row r="79" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>96</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C79" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="6" t="s">
+    <row r="80" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>97</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C80" s="9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="6" t="s">
+    <row r="81" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>98</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C81" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="6" t="s">
+    <row r="82" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>99</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C82" s="9" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="6" t="s">
+    <row r="83" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>100</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C83" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="6" t="s">
+    <row r="84" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>101</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C84" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="6" t="s">
+    <row r="85" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>102</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C85" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="6" t="s">
+    <row r="86" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>103</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C86" s="9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="6" t="s">
+    <row r="87" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>104</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C87" s="9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="6" t="s">
+    <row r="88" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>105</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C88" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="6" t="s">
+    <row r="89" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>106</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C89" s="9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="6" t="s">
+    <row r="90" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>107</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="C90" s="9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="6" t="s">
+    <row r="91" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>108</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C91" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="6" t="s">
+    <row r="92" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" t="s">
         <v>109</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="C92" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="6" t="s">
+    <row r="93" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>110</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C93" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="6" t="s">
+    <row r="94" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B94" t="s">
         <v>111</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="C94" s="9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="6" t="s">
+    <row r="95" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>112</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="C95" s="9" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="6" t="s">
+    <row r="96" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>113</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="C96" s="9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="6" t="s">
+    <row r="97" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B97" t="s">
         <v>114</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="C97" s="9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="6" t="s">
+    <row r="98" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B98" t="s">
         <v>115</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="C98" s="9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="6" t="s">
+    <row r="99" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>116</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="C99" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="6" t="s">
+    <row r="100" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B100" t="s">
         <v>117</v>
       </c>
-      <c r="C99" s="9" t="s">
+      <c r="C100" s="9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="6" t="s">
+    <row r="101" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>118</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="C101" s="9" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="6" t="s">
+    <row r="102" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>119</v>
       </c>
-      <c r="C101" s="9" t="s">
+      <c r="C102" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="6" t="s">
+    <row r="103" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B103" t="s">
         <v>120</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="C103" s="9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="6" t="s">
+    <row r="104" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B104" t="s">
         <v>121</v>
       </c>
-      <c r="C103" s="9" t="s">
+      <c r="C104" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="6" t="s">
+    <row r="105" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" t="s">
         <v>122</v>
       </c>
-      <c r="C104" s="9" t="s">
+      <c r="C105" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="6" t="s">
+    <row r="106" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B106" t="s">
         <v>123</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="C106" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="6" t="s">
+    <row r="107" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B107" t="s">
         <v>124</v>
       </c>
-      <c r="C106" s="9" t="s">
+      <c r="C107" s="9" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="6" t="s">
+    <row r="108" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B108" t="s">
         <v>125</v>
       </c>
-      <c r="C107" s="9" t="s">
+      <c r="C108" s="9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="6" t="s">
+    <row r="109" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" t="s">
         <v>126</v>
       </c>
-      <c r="C108" s="9" t="s">
+      <c r="C109" s="9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="6" t="s">
+    <row r="110" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>127</v>
       </c>
-      <c r="C109" s="9" t="s">
+      <c r="C110" s="9" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="6" t="s">
+    <row r="111" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B111" t="s">
         <v>128</v>
       </c>
-      <c r="C110" s="9" t="s">
+      <c r="C111" s="9" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="6" t="s">
+    <row r="112" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B112" t="s">
         <v>129</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="C112" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="6" t="s">
+    <row r="113" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B113" t="s">
         <v>130</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="C113" s="9" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="6" t="s">
+    <row r="114" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B114" t="s">
         <v>131</v>
       </c>
-      <c r="C113" s="9" t="s">
+      <c r="C114" s="9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="6" t="s">
+    <row r="115" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B115" t="s">
         <v>132</v>
       </c>
-      <c r="C114" s="9" t="s">
+      <c r="C115" s="9" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="6" t="s">
+    <row r="116" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B116" t="s">
         <v>133</v>
       </c>
-      <c r="C115" s="9" t="s">
+      <c r="C116" s="9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="6" t="s">
+    <row r="117" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B117" t="s">
         <v>134</v>
       </c>
-      <c r="C116" s="9" t="s">
+      <c r="C117" s="9" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="6" t="s">
+    <row r="118" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B118" t="s">
         <v>135</v>
       </c>
-      <c r="C117" s="9" t="s">
+      <c r="C118" s="9" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="6" t="s">
+    <row r="119" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B119" t="s">
         <v>136</v>
       </c>
-      <c r="C118" s="9" t="s">
+      <c r="C119" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="6" t="s">
+    <row r="120" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B120" t="s">
         <v>137</v>
       </c>
-      <c r="C119" s="9" t="s">
+      <c r="C120" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="6" t="s">
+    <row r="121" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B121" t="s">
         <v>138</v>
       </c>
-      <c r="C120" s="9" t="s">
+      <c r="C121" s="9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="6" t="s">
+    <row r="122" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B122" t="s">
         <v>139</v>
       </c>
-      <c r="C121" s="9" t="s">
+      <c r="C122" s="9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="6" t="s">
+    <row r="123" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B123" t="s">
         <v>140</v>
       </c>
-      <c r="C122" s="9" t="s">
+      <c r="C123" s="9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="6" t="s">
+    <row r="124" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B124" t="s">
         <v>141</v>
       </c>
-      <c r="C123" s="9" t="s">
+      <c r="C124" s="9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="6" t="s">
+    <row r="125" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B125" t="s">
         <v>142</v>
       </c>
-      <c r="C124" s="9" t="s">
+      <c r="C125" s="9" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="6" t="s">
+    <row r="126" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B126" t="s">
         <v>143</v>
       </c>
-      <c r="C125" s="9" t="s">
+      <c r="C126" s="9" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="6" t="s">
+    <row r="127" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B127" t="s">
         <v>144</v>
       </c>
-      <c r="C126" s="9" t="s">
+      <c r="C127" s="9" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="6" t="s">
+    <row r="128" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B128" t="s">
         <v>145</v>
       </c>
-      <c r="C127" s="9" t="s">
+      <c r="C128" s="9" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="6" t="s">
+    <row r="129" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B129" t="s">
         <v>146</v>
       </c>
-      <c r="C128" s="9" t="s">
+      <c r="C129" s="9" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="6" t="s">
+    <row r="130" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B130" t="s">
         <v>147</v>
       </c>
-      <c r="C129" s="9" t="s">
+      <c r="C130" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="6" t="s">
+    <row r="131" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B131" t="s">
         <v>148</v>
       </c>
-      <c r="C130" s="9" t="s">
+      <c r="C131" s="9" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="B131" t="s">
-        <v>149</v>
-      </c>
-      <c r="C131" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="847" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="847" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C847" s="3"/>
       <c r="D847" s="3"/>
       <c r="E847" s="3"/>
       <c r="F847" s="3"/>
     </row>
-    <row r="850" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="850" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C850" s="3"/>
       <c r="D850" s="3"/>
       <c r="E850" s="3"/>
       <c r="F850" s="3"/>
     </row>
-    <row r="858" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="858" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C858" s="4"/>
       <c r="D858" s="4"/>
       <c r="E858" s="4"/>
       <c r="F858" s="4"/>
     </row>
-    <row r="859" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="859" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C859" s="4"/>
       <c r="D859" s="4"/>
       <c r="E859" s="4"/>
       <c r="F859" s="4"/>
     </row>
-    <row r="860" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="860" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C860" s="4"/>
       <c r="D860" s="4"/>
       <c r="E860" s="4"/>
       <c r="F860" s="4"/>
     </row>
-    <row r="863" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="863" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C863" s="4"/>
       <c r="D863" s="4"/>
       <c r="E863" s="4"/>
       <c r="F863" s="4"/>
     </row>
-    <row r="864" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="864" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C864" s="3"/>
       <c r="D864" s="3"/>
       <c r="E864" s="3"/>
       <c r="F864" s="3"/>
     </row>
-    <row r="872" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="872" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C872" s="3"/>
       <c r="D872" s="3"/>
       <c r="E872" s="3"/>
       <c r="F872" s="3"/>
     </row>
-    <row r="874" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="874" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C874" s="3"/>
       <c r="D874" s="3"/>
       <c r="E874" s="3"/>
       <c r="F874" s="3"/>
     </row>
-    <row r="1237" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1237" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B1237" s="2"/>
       <c r="C1237" s="1"/>
       <c r="D1237" s="1"/>
@@ -3119,7 +3124,7 @@
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="A2:G12" xr:uid="{FDF80C69-0530-441B-9DE8-C0E6BF79AB4B}"/>
+      <autoFilter ref="A2:G12" xr:uid="{6C00EDA4-CCA0-CF40-8999-FCB54AAC5F1E}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
